--- a/RandomRNN/progress/9_19_13/acc_5subjects_test.xlsx
+++ b/RandomRNN/progress/9_19_13/acc_5subjects_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="920" windowWidth="20660" windowHeight="14380" tabRatio="500"/>
+    <workbookView xWindow="2680" yWindow="1020" windowWidth="15760" windowHeight="14380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Classification Accuracy</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,6 +90,14 @@
   </si>
   <si>
     <t>Average</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 ms RNN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25 ms RNN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -97,6 +105,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="10"/>
@@ -458,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -575,102 +589,149 @@
         <v>78.933599999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>79.221999999999994</v>
+      </c>
+      <c r="C8">
+        <v>82.778000000000006</v>
+      </c>
+      <c r="D8">
+        <v>77.555999999999997</v>
+      </c>
+      <c r="E8">
+        <v>72.778000000000006</v>
+      </c>
+      <c r="F8">
+        <v>78.555999999999997</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(B8:F8)</f>
+        <v>78.177999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="B10" t="s">
+    <row r="11" spans="1:7">
+      <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>15</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>92.665999999999997</v>
-      </c>
-      <c r="C11">
-        <v>96.665999999999997</v>
-      </c>
-      <c r="D11">
-        <v>92</v>
-      </c>
-      <c r="E11">
-        <v>84.001999999999995</v>
-      </c>
-      <c r="F11">
-        <v>93.331999999999994</v>
-      </c>
-      <c r="G11">
-        <f>AVERAGE(B11:F11)</f>
-        <v>91.733199999999997</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>94.888999999999996</v>
+        <v>92.665999999999997</v>
       </c>
       <c r="C12">
-        <v>90</v>
+        <v>96.665999999999997</v>
       </c>
       <c r="D12">
-        <v>88.221999999999994</v>
+        <v>92</v>
       </c>
       <c r="E12">
-        <v>83.111000000000004</v>
+        <v>84.001999999999995</v>
       </c>
       <c r="F12">
-        <v>90</v>
+        <v>93.331999999999994</v>
       </c>
       <c r="G12">
-        <f t="shared" ref="G12:G13" si="1">AVERAGE(B12:F12)</f>
-        <v>89.244399999999999</v>
+        <f>AVERAGE(B12:F12)</f>
+        <v>91.733199999999997</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>94.888999999999996</v>
+      </c>
+      <c r="C13">
+        <v>90</v>
+      </c>
+      <c r="D13">
+        <v>88.221999999999994</v>
+      </c>
+      <c r="E13">
+        <v>83.111000000000004</v>
+      </c>
+      <c r="F13">
+        <v>90</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ref="G13:G14" si="1">AVERAGE(B13:F13)</f>
+        <v>89.244399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>88.444000000000003</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>91.332999999999998</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>87.555999999999997</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>83.778000000000006</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>89.111000000000004</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <f t="shared" si="1"/>
         <v>88.044399999999996</v>
       </c>
     </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <v>87.332999999999998</v>
+      </c>
+      <c r="C15">
+        <v>88.888999999999996</v>
+      </c>
+      <c r="D15">
+        <v>89.111000000000004</v>
+      </c>
+      <c r="E15">
+        <v>84</v>
+      </c>
+      <c r="F15">
+        <v>89.555999999999997</v>
+      </c>
+      <c r="G15">
+        <f>AVERAGE(B15:F15)</f>
+        <v>87.777799999999985</v>
+      </c>
+    </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
